--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3441742.616373701</v>
+        <v>3432963.062925851</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11445045.20601261</v>
+        <v>11372663.21430633</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404708.958983486</v>
+        <v>1274158.469381169</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7412008.114424646</v>
+        <v>7450538.116868217</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>12.9390459089976</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>203.4441683165566</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124636</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1615,16 +1615,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>141.8648055646428</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>58.58787979144372</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1821,7 +1821,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1852,10 +1852,10 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>188.9420073839243</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
         <v>363.9465890348609</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>35.9972875576242</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -1909,7 +1909,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2083,13 +2083,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>282.5816201103717</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481102</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>298.812904893668</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2380,7 +2380,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>288.0805294855032</v>
       </c>
       <c r="X23" t="n">
         <v>322.7559640598765</v>
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2532,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2566,13 +2566,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>220.1599646531861</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2623,7 +2623,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>51.44216579698996</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,19 +2721,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870211</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>184.6691642751063</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>13.06202583826174</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2809,7 +2809,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2860,7 +2860,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3006,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>294.0811679132214</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C32" t="n">
-        <v>276.6202180207484</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D32" t="n">
-        <v>266.0303678704238</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E32" t="n">
-        <v>293.2776963220026</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F32" t="n">
-        <v>318.2233719914523</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G32" t="n">
-        <v>322.2690519031943</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H32" t="n">
-        <v>205.9550906370613</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T32" t="n">
-        <v>9.351733737437193</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U32" t="n">
-        <v>162.3424982086428</v>
+        <v>157.0448987217165</v>
       </c>
       <c r="V32" t="n">
-        <v>239.0995847198757</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W32" t="n">
-        <v>260.5882949671538</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X32" t="n">
-        <v>281.0784269282099</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y32" t="n">
-        <v>297.5852649057944</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.17930643167814</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C34" t="n">
-        <v>78.59414734836868</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D34" t="n">
-        <v>59.9627992679532</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>57.78128889631002</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F34" t="n">
-        <v>56.76837427267209</v>
+        <v>53.93109596828919</v>
       </c>
       <c r="G34" t="n">
-        <v>77.37313450876907</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>56.10234116406163</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>7.699746659578942</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2794789197881755</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U34" t="n">
-        <v>230.1190861121818</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V34" t="n">
-        <v>163.4849695735688</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X34" t="n">
-        <v>137.056981638778</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y34" t="n">
-        <v>129.9319796018356</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.0811679132215</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C35" t="n">
-        <v>276.6202180207484</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D35" t="n">
-        <v>266.0303678704238</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E35" t="n">
-        <v>293.2776963220027</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F35" t="n">
-        <v>318.2233719914523</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G35" t="n">
-        <v>322.2690519031943</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H35" t="n">
-        <v>205.9550906370613</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T35" t="n">
-        <v>9.351733737434943</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U35" t="n">
-        <v>162.3424982086429</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V35" t="n">
-        <v>239.0995847198758</v>
+        <v>181.519727360073</v>
       </c>
       <c r="W35" t="n">
-        <v>260.5882949671539</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X35" t="n">
-        <v>281.0784269282099</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.5852649057945</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.17930643167817</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C37" t="n">
-        <v>78.59414734836871</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>59.96279926795323</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E37" t="n">
-        <v>57.78128889631004</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F37" t="n">
-        <v>56.76837427267212</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H37" t="n">
-        <v>88.66226282088894</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I37" t="n">
-        <v>7.69974665957897</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2794789197882039</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,19 +3480,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>197.5591644553537</v>
+        <v>199.7400067181081</v>
       </c>
       <c r="V37" t="n">
-        <v>163.4849695735689</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W37" t="n">
-        <v>197.8703245863319</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X37" t="n">
-        <v>137.056981638778</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.9319796018357</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>294.0811679132215</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C38" t="n">
-        <v>276.6202180207484</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D38" t="n">
-        <v>266.0303678704238</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E38" t="n">
-        <v>166.8290456321604</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F38" t="n">
-        <v>318.2233719914523</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G38" t="n">
-        <v>322.2690519031943</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H38" t="n">
-        <v>205.9550906370613</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.53508803791671</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T38" t="n">
-        <v>115.265296389361</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U38" t="n">
-        <v>162.3424982086429</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V38" t="n">
-        <v>239.0995847198758</v>
+        <v>181.519727360073</v>
       </c>
       <c r="W38" t="n">
-        <v>260.5882949671539</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X38" t="n">
-        <v>281.0784269282099</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.5852649057945</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.17930643167817</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>78.59414734836871</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>59.96279926795323</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>57.78128889631004</v>
+        <v>54.9440105919267</v>
       </c>
       <c r="F40" t="n">
-        <v>56.76837427267212</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G40" t="n">
-        <v>77.3731345087691</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H40" t="n">
-        <v>56.10234116406166</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I40" t="n">
-        <v>7.69974665957897</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2794789197882039</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>101.1163515811828</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T40" t="n">
-        <v>130.8962755259101</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U40" t="n">
-        <v>197.5591644553537</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X40" t="n">
-        <v>169.6169032956053</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341.056304531814</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>138.5750171166881</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>340.2528329405952</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>365.1985086100449</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>369.2441885217869</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>252.9302272556539</v>
+        <v>179.4384479484349</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.51022465650928</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
-        <v>162.2404330079536</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>209.3176348272354</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>307.5634315857465</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>328.0535635468025</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.560401524387</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.1544430502707</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5692839669613</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>106.9379358865458</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>104.7564255149026</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>103.7435108912647</v>
+        <v>98.44591140433926</v>
       </c>
       <c r="G43" t="n">
-        <v>124.3482711273617</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0774777826542</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>54.67488327817154</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.25461553838078</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>148.0914881997753</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>177.8714121445026</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>244.5343010739463</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>84.16109634425588</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>244.8454612049244</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>184.0321182573706</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>176.9071162204282</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.056304531814</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>323.595354639341</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>313.0055044890164</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>340.2528329405952</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>365.1985086100449</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2441885217869</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>252.9302272556539</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.51022465650928</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
-        <v>162.2404330079536</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>18.85522440131352</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>328.0535635468025</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>344.560401524387</v>
+        <v>311.9855046872837</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.1544430502707</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5692839669613</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>106.9379358865458</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>104.7564255149026</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>103.7435108912647</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>124.3482711273617</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0774777826542</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>54.67488327817154</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.25461553838078</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>21.79247835186974</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T46" t="n">
-        <v>177.8714121445026</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>244.5343010739463</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V46" t="n">
-        <v>210.4601061921614</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>244.8454612049244</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>184.0321182573706</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.9071162204282</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.338774781834</v>
+        <v>1459.895634131918</v>
       </c>
       <c r="C11" t="n">
         <v>1446.825890789496</v>
@@ -5026,67 +5026,67 @@
         <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>3056.68394230625</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.497703247662</v>
+        <v>2773.070687910752</v>
       </c>
       <c r="W11" t="n">
-        <v>2450.178680925621</v>
+        <v>2467.751665588712</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.178680925621</v>
+        <v>2141.735540275705</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.488981897883</v>
+        <v>1799.045841247966</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770422</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998345</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657656</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1459.895634131918</v>
+        <v>1400.715957574904</v>
       </c>
       <c r="C14" t="n">
-        <v>1138.382750139579</v>
+        <v>1079.203073582566</v>
       </c>
       <c r="D14" t="n">
-        <v>827.5666844809023</v>
+        <v>768.3870079238886</v>
       </c>
       <c r="E14" t="n">
-        <v>827.5666844809023</v>
+        <v>430.0483882737177</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5296,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3262.764786084339</v>
+        <v>3203.585109527326</v>
       </c>
       <c r="U14" t="n">
-        <v>3056.683942306249</v>
+        <v>2997.504265749236</v>
       </c>
       <c r="V14" t="n">
-        <v>2773.070687910752</v>
+        <v>2713.891011353739</v>
       </c>
       <c r="W14" t="n">
-        <v>2467.751665588711</v>
+        <v>2408.571989031698</v>
       </c>
       <c r="X14" t="n">
-        <v>2141.735540275705</v>
+        <v>2082.555863718691</v>
       </c>
       <c r="Y14" t="n">
-        <v>1799.045841247966</v>
+        <v>1739.866164690953</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5421,28 +5421,28 @@
         <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1507.448363242303</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C17" t="n">
-        <v>1185.935479249965</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D17" t="n">
-        <v>875.1194135912876</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>875.1194135912876</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
         <v>684.2689010822731</v>
@@ -5515,19 +5515,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939509</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3104.236671416635</v>
+        <v>3289.244925086319</v>
       </c>
       <c r="V17" t="n">
-        <v>2820.623417021138</v>
+        <v>3005.631670690821</v>
       </c>
       <c r="W17" t="n">
-        <v>2515.304394699097</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="X17" t="n">
-        <v>2189.28826938609</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y17" t="n">
-        <v>1846.598570358352</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E19" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998337</v>
@@ -5670,16 +5670,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1644.057218491951</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C20" t="n">
-        <v>1644.057218491951</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D20" t="n">
-        <v>1333.241152833274</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
         <v>1047.805172923807</v>
@@ -5746,58 +5746,58 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243047</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921006</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.207425607999</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y20" t="n">
-        <v>1983.207425607999</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
         <v>771.6978860337115</v>
@@ -5949,13 +5949,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1364.208554989044</v>
+        <v>1708.734439045659</v>
       </c>
       <c r="C23" t="n">
-        <v>1042.695670996706</v>
+        <v>1387.22155505332</v>
       </c>
       <c r="D23" t="n">
-        <v>731.8796053380288</v>
+        <v>1387.22155505332</v>
       </c>
       <c r="E23" t="n">
-        <v>430.0483882737176</v>
+        <v>1048.882935403149</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>685.3466635616151</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>317.7238463546849</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>309.279371358306</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>643.0987450481525</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1094.132958296561</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1627.664862968486</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2174.443680027268</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2677.416150906605</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3072.190517263783</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3320.476879019466</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3379.493945576268</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3316.652910051437</v>
       </c>
       <c r="T23" t="n">
-        <v>3167.077706941466</v>
+        <v>3158.124795383732</v>
       </c>
       <c r="U23" t="n">
-        <v>2960.996863163376</v>
+        <v>2952.043951605642</v>
       </c>
       <c r="V23" t="n">
-        <v>2677.383608767879</v>
+        <v>2668.430697210144</v>
       </c>
       <c r="W23" t="n">
-        <v>2372.064586445838</v>
+        <v>2377.440263386404</v>
       </c>
       <c r="X23" t="n">
-        <v>2046.048461132831</v>
+        <v>2051.424138073397</v>
       </c>
       <c r="Y23" t="n">
-        <v>1703.358762105093</v>
+        <v>1708.734439045659</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6216169604505</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1685876793235</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2341780180723</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9967230126168</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4621650395018</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>177.0990648721199</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>86.59717050998739</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>161.2671484021427</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>399.5313473824899</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>766.2295076951552</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1213.505832917471</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1687.028876471926</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2097.990155889981</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2408.489747366084</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2566.131305012683</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2565.986951605198</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2436.549065098678</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.906064776534</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.838217910949</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.686109679207</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.448752951005</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.597252745472</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.836953980519</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>759.4662498052942</v>
+        <v>760.5440122846361</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9796998254606</v>
+        <v>639.0574623048026</v>
       </c>
       <c r="D25" t="n">
-        <v>535.3126933611982</v>
+        <v>536.3904558405403</v>
       </c>
       <c r="E25" t="n">
-        <v>434.8492327268784</v>
+        <v>435.9269952062205</v>
       </c>
       <c r="F25" t="n">
-        <v>335.4089181770414</v>
+        <v>336.4866806563834</v>
       </c>
       <c r="G25" t="n">
-        <v>215.1557144998336</v>
+        <v>216.2334769791756</v>
       </c>
       <c r="H25" t="n">
-        <v>116.3881606657647</v>
+        <v>117.4659231451067</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315257</v>
+        <v>159.2178966108676</v>
       </c>
       <c r="K25" t="n">
-        <v>408.6327023328087</v>
+        <v>409.7104648121505</v>
       </c>
       <c r="L25" t="n">
-        <v>771.6978860337115</v>
+        <v>772.7756485130533</v>
       </c>
       <c r="M25" t="n">
-        <v>1162.360316885667</v>
+        <v>1163.438079365009</v>
       </c>
       <c r="N25" t="n">
-        <v>1550.274078843937</v>
+        <v>1551.35184132328</v>
       </c>
       <c r="O25" t="n">
-        <v>1896.109063016757</v>
+        <v>1897.1868254961</v>
       </c>
       <c r="P25" t="n">
-        <v>2175.221948702823</v>
+        <v>2176.299711182166</v>
       </c>
       <c r="Q25" t="n">
-        <v>2299.337630107745</v>
+        <v>2300.415392587087</v>
       </c>
       <c r="R25" t="n">
-        <v>2256.956805813346</v>
+        <v>2258.034568292689</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.720554588246</v>
+        <v>2113.798317067588</v>
       </c>
       <c r="T25" t="n">
-        <v>1938.403572105845</v>
+        <v>1939.481334585188</v>
       </c>
       <c r="U25" t="n">
-        <v>1696.750338179562</v>
+        <v>1697.828100658905</v>
       </c>
       <c r="V25" t="n">
-        <v>1489.515482921749</v>
+        <v>1490.593245401091</v>
       </c>
       <c r="W25" t="n">
-        <v>1247.547945832861</v>
+        <v>1248.625708312203</v>
       </c>
       <c r="X25" t="n">
-        <v>1067.008027882917</v>
+        <v>1068.085790362259</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.6650816874605</v>
+        <v>894.7428441668026</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1654.93647038346</v>
+        <v>1624.177522734232</v>
       </c>
       <c r="C26" t="n">
-        <v>1333.423586391121</v>
+        <v>1302.664638741894</v>
       </c>
       <c r="D26" t="n">
-        <v>1022.607520732444</v>
+        <v>991.8485730832165</v>
       </c>
       <c r="E26" t="n">
-        <v>684.2689010822731</v>
+        <v>653.5099534330456</v>
       </c>
       <c r="F26" t="n">
-        <v>684.2689010822731</v>
+        <v>289.9736815915113</v>
       </c>
       <c r="G26" t="n">
-        <v>316.6460838753429</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>256.4690098705508</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>590.2883835603973</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1041.322596808806</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1574.854501480731</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2174.443680027268</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2677.416150906605</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3072.190517263783</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3320.476879019466</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3379.493945576268</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3379.493945576268</v>
       </c>
       <c r="T26" t="n">
-        <v>3167.077706941466</v>
+        <v>3220.965830908563</v>
       </c>
       <c r="U26" t="n">
-        <v>2960.996863163376</v>
+        <v>3220.965830908563</v>
       </c>
       <c r="V26" t="n">
-        <v>2677.383608767879</v>
+        <v>2937.352576513066</v>
       </c>
       <c r="W26" t="n">
-        <v>2372.064586445838</v>
+        <v>2632.033554191025</v>
       </c>
       <c r="X26" t="n">
-        <v>2046.048461132831</v>
+        <v>2306.017428878019</v>
       </c>
       <c r="Y26" t="n">
-        <v>1994.086677499508</v>
+        <v>1963.327729850281</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6216169604505</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1685876793235</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2341780180723</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9967230126168</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4621650395018</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>177.0990648721199</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>86.59717050998739</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>161.2671484021427</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>399.5313473824899</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>766.2295076951552</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1213.505832917471</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1687.028876471926</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2097.990155889981</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2408.489747366084</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2566.131305012683</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2565.986951605198</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2436.549065098678</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.906064776534</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.838217910949</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.686109679207</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.448752951005</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.597252745472</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.836953980519</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.4662498052945</v>
+        <v>760.5440122846364</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9796998254609</v>
+        <v>639.0574623048028</v>
       </c>
       <c r="D28" t="n">
-        <v>535.3126933611985</v>
+        <v>536.3904558405403</v>
       </c>
       <c r="E28" t="n">
-        <v>434.8492327268787</v>
+        <v>435.9269952062205</v>
       </c>
       <c r="F28" t="n">
-        <v>335.4089181770416</v>
+        <v>336.4866806563834</v>
       </c>
       <c r="G28" t="n">
-        <v>215.1557144998337</v>
+        <v>216.2334769791757</v>
       </c>
       <c r="H28" t="n">
-        <v>116.3881606657648</v>
+        <v>117.4659231451067</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152537</v>
       </c>
       <c r="J28" t="n">
-        <v>158.1401341315256</v>
+        <v>159.2178966108675</v>
       </c>
       <c r="K28" t="n">
-        <v>408.6327023328087</v>
+        <v>409.7104648121505</v>
       </c>
       <c r="L28" t="n">
-        <v>771.6978860337114</v>
+        <v>772.7756485130533</v>
       </c>
       <c r="M28" t="n">
-        <v>1162.360316885667</v>
+        <v>1163.438079365009</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.274078843938</v>
+        <v>1551.35184132328</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.109063016758</v>
+        <v>1897.1868254961</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.221948702825</v>
+        <v>2176.299711182166</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.337630107746</v>
+        <v>2300.415392587087</v>
       </c>
       <c r="R28" t="n">
-        <v>2256.956805813347</v>
+        <v>2258.034568292689</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.720554588247</v>
+        <v>2113.798317067588</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.403572105846</v>
+        <v>1939.481334585188</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.750338179563</v>
+        <v>1697.828100658905</v>
       </c>
       <c r="V28" t="n">
-        <v>1489.515482921749</v>
+        <v>1490.593245401091</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.547945832862</v>
+        <v>1248.625708312204</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.008027882918</v>
+        <v>1068.08579036226</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.665081687461</v>
+        <v>894.7428441668028</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1644.057218491951</v>
+        <v>1694.405850547359</v>
       </c>
       <c r="C29" t="n">
-        <v>1322.544334499613</v>
+        <v>1372.89296655502</v>
       </c>
       <c r="D29" t="n">
-        <v>1136.009825130819</v>
+        <v>1062.076900896343</v>
       </c>
       <c r="E29" t="n">
-        <v>797.6712054806478</v>
+        <v>1048.882935403149</v>
       </c>
       <c r="F29" t="n">
-        <v>434.1349336391136</v>
+        <v>685.3466635616151</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>317.7238463546849</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>309.279371358306</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>643.0987450481525</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1094.132958296561</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1627.664862968486</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2174.443680027268</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2677.416150906605</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3072.190517263783</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3320.476879019466</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3379.493945576268</v>
       </c>
       <c r="S29" t="n">
-        <v>3262.764786084339</v>
+        <v>3316.652910051437</v>
       </c>
       <c r="T29" t="n">
-        <v>3104.236671416635</v>
+        <v>3158.124795383732</v>
       </c>
       <c r="U29" t="n">
-        <v>2898.155827638544</v>
+        <v>2952.043951605642</v>
       </c>
       <c r="V29" t="n">
-        <v>2614.542573243047</v>
+        <v>2668.430697210144</v>
       </c>
       <c r="W29" t="n">
-        <v>2309.223550921006</v>
+        <v>2363.111674888104</v>
       </c>
       <c r="X29" t="n">
-        <v>1983.207425608</v>
+        <v>2037.095549575097</v>
       </c>
       <c r="Y29" t="n">
-        <v>1983.207425608</v>
+        <v>1694.405850547359</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6216169604506</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1685876793237</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2341780180724</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9967230126169</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4621650395019</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>177.09906487212</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>86.59717050998751</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>161.2671484021427</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>399.5313473824899</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>766.2295076951552</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1213.505832917471</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1687.028876471926</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2097.990155889981</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2408.489747366084</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2566.131305012683</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2565.986951605199</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2436.549065098679</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.906064776534</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.83821791095</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.686109679207</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.448752951005</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.597252745473</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.836953980519</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.4662498052944</v>
+        <v>760.5440122846363</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9796998254607</v>
+        <v>639.0574623048027</v>
       </c>
       <c r="D31" t="n">
-        <v>535.3126933611982</v>
+        <v>536.3904558405403</v>
       </c>
       <c r="E31" t="n">
-        <v>434.8492327268784</v>
+        <v>435.9269952062205</v>
       </c>
       <c r="F31" t="n">
-        <v>335.4089181770414</v>
+        <v>336.4866806563834</v>
       </c>
       <c r="G31" t="n">
-        <v>215.1557144998337</v>
+        <v>216.2334769791756</v>
       </c>
       <c r="H31" t="n">
-        <v>116.3881606657647</v>
+        <v>117.4659231451067</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J31" t="n">
-        <v>158.1401341315256</v>
+        <v>159.2178966108676</v>
       </c>
       <c r="K31" t="n">
-        <v>408.6327023328087</v>
+        <v>409.7104648121506</v>
       </c>
       <c r="L31" t="n">
-        <v>771.6978860337115</v>
+        <v>772.7756485130534</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.360316885667</v>
+        <v>1163.438079365009</v>
       </c>
       <c r="N31" t="n">
-        <v>1550.274078843938</v>
+        <v>1551.35184132328</v>
       </c>
       <c r="O31" t="n">
-        <v>1896.109063016758</v>
+        <v>1897.1868254961</v>
       </c>
       <c r="P31" t="n">
-        <v>2175.221948702825</v>
+        <v>2176.299711182166</v>
       </c>
       <c r="Q31" t="n">
-        <v>2299.337630107746</v>
+        <v>2300.415392587087</v>
       </c>
       <c r="R31" t="n">
-        <v>2256.956805813347</v>
+        <v>2258.034568292689</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.720554588247</v>
+        <v>2113.798317067588</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.403572105846</v>
+        <v>1939.481334585188</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.750338179563</v>
+        <v>1697.828100658905</v>
       </c>
       <c r="V31" t="n">
-        <v>1489.515482921749</v>
+        <v>1490.593245401091</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.547945832861</v>
+        <v>1248.625708312203</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.008027882918</v>
+        <v>1068.085790362259</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.6650816874608</v>
+        <v>894.7428441668028</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1765.881608093681</v>
+        <v>1734.852707015896</v>
       </c>
       <c r="C32" t="n">
-        <v>1486.467246456561</v>
+        <v>1460.789455971631</v>
       </c>
       <c r="D32" t="n">
-        <v>1217.749703153103</v>
+        <v>1197.423023261027</v>
       </c>
       <c r="E32" t="n">
-        <v>921.509605858151</v>
+        <v>906.5340365589294</v>
       </c>
       <c r="F32" t="n">
-        <v>600.0718563718356</v>
+        <v>590.4473976654684</v>
       </c>
       <c r="G32" t="n">
-        <v>274.5475615201241</v>
+        <v>270.2742134066116</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>256.4690098705508</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>590.2883835603973</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1041.322596808806</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1574.854501480731</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2121.633318539513</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2624.60578941885</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3019.380155776028</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3320.476879019466</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3379.493945576268</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3364.10254299951</v>
       </c>
       <c r="T32" t="n">
-        <v>3316.15962591479</v>
+        <v>3253.024061279879</v>
       </c>
       <c r="U32" t="n">
-        <v>3152.177304491919</v>
+        <v>3094.392850449862</v>
       </c>
       <c r="V32" t="n">
-        <v>2910.66257245164</v>
+        <v>2858.229229002438</v>
       </c>
       <c r="W32" t="n">
-        <v>2647.442072484818</v>
+        <v>2600.35983962847</v>
       </c>
       <c r="X32" t="n">
-        <v>2363.52446952703</v>
+        <v>2321.793347263537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2062.933292854511</v>
+        <v>2026.553281183871</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>942.6216169604505</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>768.1685876793235</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>619.2341780180723</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>459.9967230126168</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>313.4621650395018</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>177.0990648721199</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>86.59717050998739</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>161.2671484021427</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>399.5313473824899</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>766.2295076951552</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1213.505832917471</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1687.028876471926</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2097.990155889981</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2408.489747366084</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2566.131305012683</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2565.986951605198</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2436.549065098678</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.906064776534</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2015.838217910949</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.686109679207</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.448752951005</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1318.597252745472</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1110.836953980519</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>464.7765933187629</v>
+        <v>810.4788181443693</v>
       </c>
       <c r="C34" t="n">
-        <v>385.388565694148</v>
+        <v>736.4419011126089</v>
       </c>
       <c r="D34" t="n">
-        <v>324.8200815851044</v>
+        <v>586.3252617002731</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4551433060034</v>
+        <v>533.3114340140266</v>
       </c>
       <c r="F34" t="n">
-        <v>209.1133511113851</v>
+        <v>478.8355795006032</v>
       </c>
       <c r="G34" t="n">
-        <v>130.9586697893961</v>
+        <v>311.1327428753222</v>
       </c>
       <c r="H34" t="n">
-        <v>74.28963831054598</v>
+        <v>164.91555609318</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>112.7125113584609</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>316.6996943073373</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>633.2594927558334</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>977.4165383553825</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>1318.824915061247</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>1618.154513981661</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>1850.76201441532</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1928.372310567835</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.012246149313</v>
+        <v>1928.372310567835</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.326361976139</v>
+        <v>1831.585692290808</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.559746545665</v>
+        <v>1704.718342756481</v>
       </c>
       <c r="U34" t="n">
-        <v>1281.116225220229</v>
+        <v>1510.514741778271</v>
       </c>
       <c r="V34" t="n">
-        <v>1115.979892317634</v>
+        <v>1350.72951946853</v>
       </c>
       <c r="W34" t="n">
-        <v>826.5627222806737</v>
+        <v>1156.211615327717</v>
       </c>
       <c r="X34" t="n">
-        <v>688.1213266859485</v>
+        <v>1023.121330325846</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.8769028457104</v>
+        <v>897.2280170784624</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1765.881608093682</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C35" t="n">
-        <v>1486.467246456562</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D35" t="n">
-        <v>1217.749703153103</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E35" t="n">
-        <v>921.5096058581512</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F35" t="n">
-        <v>600.0718563718357</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G35" t="n">
-        <v>274.5475615201242</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T35" t="n">
-        <v>3316.159625914791</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U35" t="n">
-        <v>3152.17730449192</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V35" t="n">
-        <v>2910.662572451641</v>
+        <v>2857.151466523095</v>
       </c>
       <c r="W35" t="n">
-        <v>2647.442072484819</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X35" t="n">
-        <v>2363.524469527031</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y35" t="n">
-        <v>2062.933292854511</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>587.2135583764261</v>
+        <v>522.2180850649279</v>
       </c>
       <c r="C37" t="n">
-        <v>507.8255307518112</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D37" t="n">
-        <v>447.2570466427676</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E37" t="n">
-        <v>388.8921083636665</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F37" t="n">
-        <v>331.5503161690482</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8474795437672</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H37" t="n">
-        <v>74.289638310546</v>
+        <v>68.9385277176915</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.012246149313</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.326361976139</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.559746545665</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1314.0050349746</v>
+        <v>1222.254008698829</v>
       </c>
       <c r="V37" t="n">
-        <v>1148.868702072006</v>
+        <v>1062.468786389089</v>
       </c>
       <c r="W37" t="n">
-        <v>948.999687338337</v>
+        <v>867.9508822482752</v>
       </c>
       <c r="X37" t="n">
-        <v>810.5582917436118</v>
+        <v>734.8605972464045</v>
       </c>
       <c r="Y37" t="n">
-        <v>679.3138679033738</v>
+        <v>608.967283999021</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1638.155698305962</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C38" t="n">
-        <v>1358.741336668842</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D38" t="n">
-        <v>1090.023793365384</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E38" t="n">
-        <v>921.5096058581512</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F38" t="n">
-        <v>600.0718563718357</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G38" t="n">
-        <v>274.5475615201242</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7195,31 +7195,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3304.863308439558</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T38" t="n">
-        <v>3188.433716127072</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U38" t="n">
-        <v>3024.4513947042</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V38" t="n">
-        <v>2782.936662663922</v>
+        <v>2857.151466523095</v>
       </c>
       <c r="W38" t="n">
-        <v>2519.7161626971</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X38" t="n">
-        <v>2235.798559739312</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y38" t="n">
-        <v>1935.207383066792</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>464.776593318763</v>
+        <v>619.6025238727337</v>
       </c>
       <c r="C40" t="n">
-        <v>385.3885656941482</v>
+        <v>450.6663409448269</v>
       </c>
       <c r="D40" t="n">
-        <v>324.8200815851046</v>
+        <v>300.5497015324911</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4551433060035</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F40" t="n">
-        <v>209.1133511113852</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9586697893962</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H40" t="n">
-        <v>74.28963831054601</v>
+        <v>68.9385277176915</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.012246149313</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1824.874517279431</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T40" t="n">
-        <v>1692.656057152249</v>
+        <v>1703.640580277138</v>
       </c>
       <c r="U40" t="n">
-        <v>1493.101345581185</v>
+        <v>1509.436979298928</v>
       </c>
       <c r="V40" t="n">
-        <v>1238.416857375298</v>
+        <v>1349.651756989188</v>
       </c>
       <c r="W40" t="n">
-        <v>948.999687338337</v>
+        <v>1155.133852848374</v>
       </c>
       <c r="X40" t="n">
-        <v>777.6694819892408</v>
+        <v>1022.043567846504</v>
       </c>
       <c r="Y40" t="n">
-        <v>556.8769028457107</v>
+        <v>801.2509887029735</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1547.522999709728</v>
+        <v>1949.589732305506</v>
       </c>
       <c r="C41" t="n">
-        <v>1547.522999709728</v>
+        <v>1628.076848313168</v>
       </c>
       <c r="D41" t="n">
-        <v>1407.548234945397</v>
+        <v>1317.26078265449</v>
       </c>
       <c r="E41" t="n">
-        <v>1063.858504702371</v>
+        <v>978.9221630043195</v>
       </c>
       <c r="F41" t="n">
-        <v>694.9711222679823</v>
+        <v>615.3858911627852</v>
       </c>
       <c r="G41" t="n">
-        <v>321.9971944681975</v>
+        <v>247.763073955855</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3257.413675491484</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T41" t="n">
-        <v>3093.534450230925</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U41" t="n">
-        <v>2882.102495859981</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="V41" t="n">
-        <v>2882.102495859981</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="W41" t="n">
-        <v>2571.432362945085</v>
+        <v>2957.445763762299</v>
       </c>
       <c r="X41" t="n">
-        <v>2240.065127039224</v>
+        <v>2631.429638449293</v>
       </c>
       <c r="Y41" t="n">
-        <v>1892.024317418631</v>
+        <v>2288.739939421554</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>796.9240239552762</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C43" t="n">
-        <v>670.086363382588</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D43" t="n">
-        <v>562.068246325471</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E43" t="n">
-        <v>456.2536750982967</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F43" t="n">
-        <v>351.4622499556051</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G43" t="n">
-        <v>225.8579356855428</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H43" t="n">
-        <v>121.7392712586193</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>152.8955106394689</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K43" t="n">
-        <v>398.1434553486951</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>755.9640155575412</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
-        <v>1141.38182291744</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1524.050961383655</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1864.641322064418</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2138.509584258427</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2257.380642171292</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2209.648707284038</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2060.061345466083</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1880.393252390828</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1633.38890787169</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.377699443149</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1301.059051761407</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>1115.168023218609</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.4739664302972</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2050.579405782121</v>
+        <v>1654.93647038346</v>
       </c>
       <c r="C44" t="n">
-        <v>1723.715411196928</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D44" t="n">
-        <v>1407.548234945397</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E44" t="n">
-        <v>1063.858504702371</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F44" t="n">
-        <v>694.9711222679823</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G44" t="n">
-        <v>321.9971944681975</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3257.413675491485</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T44" t="n">
-        <v>3093.534450230926</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>3093.534450230926</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V44" t="n">
-        <v>3093.534450230926</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W44" t="n">
-        <v>3074.488769017478</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X44" t="n">
-        <v>2743.121533111617</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="Y44" t="n">
-        <v>2395.080723491024</v>
+        <v>1994.086677499508</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>796.9240239552762</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C46" t="n">
-        <v>670.086363382588</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D46" t="n">
-        <v>562.068246325471</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E46" t="n">
-        <v>456.2536750982967</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F46" t="n">
-        <v>351.4622499556051</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G46" t="n">
-        <v>225.8579356855428</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>121.7392712586193</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>152.8955106394689</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K46" t="n">
-        <v>398.1434553486952</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L46" t="n">
-        <v>755.9640155575412</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M46" t="n">
-        <v>1141.38182291744</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1524.050961383655</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1864.641322064418</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>2138.509584258427</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2257.380642171292</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2209.648707284038</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2187.63610288821</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>2007.968009812955</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1760.963665293817</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
-        <v>1548.377699443149</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1301.059051761407</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>1115.168023218609</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.4739664302972</v>
+        <v>893.665081687461</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9387195582597</v>
+        <v>108.4578083819526</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0299464227919</v>
+        <v>111.2991114468049</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318186</v>
+        <v>100.8018825632059</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323863</v>
+        <v>80.1721860433795</v>
       </c>
       <c r="N8" t="n">
-        <v>61.00144891149961</v>
+        <v>76.8090433271297</v>
       </c>
       <c r="O8" t="n">
-        <v>71.0718992657024</v>
+        <v>85.99856242177816</v>
       </c>
       <c r="P8" t="n">
-        <v>95.50771753390021</v>
+        <v>108.2472791970536</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3816583481039</v>
+        <v>129.9485386050687</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>79.12633608862856</v>
+        <v>83.60465388110481</v>
       </c>
       <c r="K9" t="n">
-        <v>56.29524403393702</v>
+        <v>63.94940243724227</v>
       </c>
       <c r="L9" t="n">
-        <v>28.90545725697471</v>
+        <v>39.19741781203422</v>
       </c>
       <c r="M9" t="n">
-        <v>14.17891314335149</v>
+        <v>26.18914567068788</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.32810764477273</v>
       </c>
       <c r="O9" t="n">
-        <v>22.44423757443683</v>
+        <v>33.72204757807914</v>
       </c>
       <c r="P9" t="n">
-        <v>37.54182911310821</v>
+        <v>46.59326591032426</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.51914927829571</v>
+        <v>81.56979507153784</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.82491575659759</v>
+        <v>84.44187384651664</v>
       </c>
       <c r="L10" t="n">
-        <v>71.94053294496764</v>
+        <v>77.84864973702838</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962938</v>
+        <v>78.78929099775723</v>
       </c>
       <c r="N10" t="n">
-        <v>62.89780050171086</v>
+        <v>68.97896290606199</v>
       </c>
       <c r="O10" t="n">
-        <v>78.61457070130248</v>
+        <v>84.23150844637772</v>
       </c>
       <c r="P10" t="n">
-        <v>86.52286261917671</v>
+        <v>91.32912321606898</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-3.894781112710786e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>53.34379948258103</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>53.34379948258129</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>53.34379948258103</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>53.34379948258126</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.3588981658848</v>
+        <v>14.44748961876269</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>305.3587092434174</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>77.33295353498571</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>218.0361035584761</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>98.35495372958385</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>170.9589017391945</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>168.0227477826852</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>52.37361334329756</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5.981554650710279</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>36.1423285600012</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>14.18530261331722</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>143.7866243816748</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.8206362404711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>123.0387407269841</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>321.8932076154075</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>20.53508803791668</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>105.9135626519238</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.53508803791671</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>105.9135626519261</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>52.28225787287681</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>126.4486506898423</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>52.28225787287681</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>323.595354639341</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>174.4304873723283</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>68.19417982029304</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>286.0747213384684</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>126.2990098479056</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.3176348272354</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>286.0747213384684</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>288.7082071844329</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>27.27729735017738</v>
       </c>
     </row>
     <row r="45">
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.2990098479056</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>682187.5878442827</v>
+        <v>688465.3913743645</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605320.3559298868</v>
+        <v>605320.3559298869</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605320.3559298868</v>
+        <v>605320.3559298869</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>605320.3559298868</v>
+        <v>610774.8857984417</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605320.3559298869</v>
+        <v>610774.8857984418</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605320.3559298869</v>
+        <v>610774.8857984417</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>641315.577649022</v>
+        <v>651345.4322904554</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>641315.5776490219</v>
+        <v>645890.9024219005</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>641315.577649022</v>
+        <v>645890.9024219005</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>598395.8695738373</v>
+        <v>605320.3559298868</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>598395.8695738374</v>
+        <v>605320.3559298869</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="D2" t="n">
-        <v>798867.6816210077</v>
+        <v>798860.8060383502</v>
       </c>
       <c r="E2" t="n">
         <v>745417.7346425961</v>
       </c>
       <c r="F2" t="n">
-        <v>745417.7346425962</v>
+        <v>745417.7346425966</v>
       </c>
       <c r="G2" t="n">
-        <v>745417.7346425963</v>
+        <v>745417.7346425966</v>
       </c>
       <c r="H2" t="n">
         <v>745417.7346425962</v>
       </c>
       <c r="I2" t="n">
-        <v>745417.7346425964</v>
+        <v>749475.3606761104</v>
       </c>
       <c r="J2" t="n">
-        <v>745417.7346425959</v>
+        <v>749475.3606761103</v>
       </c>
       <c r="K2" t="n">
-        <v>745417.734642596</v>
+        <v>749475.3606761101</v>
       </c>
       <c r="L2" t="n">
-        <v>790702.0458376381</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="M2" t="n">
-        <v>790702.0458376379</v>
+        <v>796458.0995841627</v>
       </c>
       <c r="N2" t="n">
-        <v>790702.0458376376</v>
+        <v>796458.0995841625</v>
       </c>
       <c r="O2" t="n">
-        <v>736706.2840656312</v>
+        <v>745417.7346425966</v>
       </c>
       <c r="P2" t="n">
-        <v>736706.2840656313</v>
+        <v>745417.7346425963</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>201068.9115716352</v>
+        <v>182196.0101410549</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621993</v>
+        <v>990429.8681175382</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3582.495953363588</v>
       </c>
       <c r="J3" t="n">
+        <v>37580.10929487403</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>37580.10929487406</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>33342.02970533324</v>
-      </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>203831.2842807989</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>381670.0168655998</v>
+        <v>388803.2665979782</v>
       </c>
       <c r="E4" t="n">
-        <v>60655.33327364779</v>
+        <v>60655.33327364775</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.33327364779</v>
+        <v>60655.33327364772</v>
       </c>
       <c r="G4" t="n">
         <v>60655.33327364776</v>
       </c>
       <c r="H4" t="n">
+        <v>60655.33327364776</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62890.93990368304</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62890.93990368304</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62890.93990368304</v>
+      </c>
+      <c r="L4" t="n">
+        <v>92654.10659538505</v>
+      </c>
+      <c r="M4" t="n">
+        <v>90418.49996534977</v>
+      </c>
+      <c r="N4" t="n">
+        <v>90418.49996534977</v>
+      </c>
+      <c r="O4" t="n">
+        <v>60655.33327364778</v>
+      </c>
+      <c r="P4" t="n">
         <v>60655.33327364779</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60655.33327364778</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60655.33327364778</v>
-      </c>
-      <c r="K4" t="n">
-        <v>60655.33327364779</v>
-      </c>
-      <c r="L4" t="n">
-        <v>87048.89384871686</v>
-      </c>
-      <c r="M4" t="n">
-        <v>87048.89384871686</v>
-      </c>
-      <c r="N4" t="n">
-        <v>87048.89384871685</v>
-      </c>
-      <c r="O4" t="n">
-        <v>55542.55291715247</v>
-      </c>
-      <c r="P4" t="n">
-        <v>55542.55291715247</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38745.80483114667</v>
+        <v>38265.39553005322</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
         <v>78255.49332178176</v>
@@ -26490,28 +26490,28 @@
         <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
+        <v>79074.59280608164</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79074.59280608164</v>
+      </c>
+      <c r="K5" t="n">
+        <v>79074.59280608164</v>
+      </c>
+      <c r="L5" t="n">
+        <v>83023.7455664701</v>
+      </c>
+      <c r="M5" t="n">
+        <v>82204.64608217022</v>
+      </c>
+      <c r="N5" t="n">
+        <v>82204.64608217022</v>
+      </c>
+      <c r="O5" t="n">
         <v>78255.49332178176</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
         <v>78255.49332178176</v>
-      </c>
-      <c r="K5" t="n">
-        <v>78255.49332178176</v>
-      </c>
-      <c r="L5" t="n">
-        <v>81759.28219090385</v>
-      </c>
-      <c r="M5" t="n">
-        <v>81759.28219090382</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81759.28219090383</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77810.12943051537</v>
-      </c>
-      <c r="P5" t="n">
-        <v>77810.12943051537</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>307391.4694235746</v>
+        <v>307347.3336448941</v>
       </c>
       <c r="C6" t="n">
-        <v>307391.4694235746</v>
+        <v>307347.3336448942</v>
       </c>
       <c r="D6" t="n">
-        <v>177382.9483526261</v>
+        <v>189553.6999338966</v>
       </c>
       <c r="E6" t="n">
-        <v>-366218.2686150328</v>
+        <v>-385335.7290697326</v>
       </c>
       <c r="F6" t="n">
-        <v>606506.9080471667</v>
+        <v>605094.1390478059</v>
       </c>
       <c r="G6" t="n">
-        <v>606506.9080471669</v>
+        <v>605094.1390478064</v>
       </c>
       <c r="H6" t="n">
-        <v>606506.9080471667</v>
+        <v>605094.1390478057</v>
       </c>
       <c r="I6" t="n">
-        <v>606506.9080471669</v>
+        <v>602618.6047067881</v>
       </c>
       <c r="J6" t="n">
-        <v>568926.7987522923</v>
+        <v>568620.9913652776</v>
       </c>
       <c r="K6" t="n">
-        <v>606506.9080471664</v>
+        <v>606201.1006601515</v>
       </c>
       <c r="L6" t="n">
-        <v>588551.8400926841</v>
+        <v>587257.7641609472</v>
       </c>
       <c r="M6" t="n">
-        <v>414705.3015059443</v>
+        <v>419899.6275626768</v>
       </c>
       <c r="N6" t="n">
-        <v>621893.869798017</v>
+        <v>623730.9118434754</v>
       </c>
       <c r="O6" t="n">
-        <v>603353.6017179635</v>
+        <v>605094.139047806</v>
       </c>
       <c r="P6" t="n">
-        <v>603353.6017179635</v>
+        <v>605094.1390478058</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="H2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>93.95027323718512</v>
+      </c>
+      <c r="M2" t="n">
+        <v>93.95027323718512</v>
+      </c>
+      <c r="N2" t="n">
+        <v>93.95027323718512</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>88.65267375025915</v>
-      </c>
-      <c r="M2" t="n">
-        <v>88.65267375025913</v>
-      </c>
-      <c r="N2" t="n">
-        <v>88.65267375025913</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41.67753713166655</v>
-      </c>
       <c r="P2" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26743,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>212.7429142226247</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>844.8734863940671</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>844.8734863940671</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>844.8734863940671</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022928</v>
+        <v>844.8734863940671</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,19 +26925,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>212.7429142226247</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673041</v>
+        <v>877.0337863706736</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.4720309917742</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>817.9294244105187</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.8087073802583</v>
+        <v>330.7159945970437</v>
       </c>
       <c r="I8" t="n">
-        <v>174.0885230584365</v>
+        <v>177.5039450455105</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.58066941881005</v>
+        <v>96.14565227064938</v>
       </c>
       <c r="S8" t="n">
-        <v>187.5123304152058</v>
+        <v>189.5311081476602</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9641928127885</v>
+        <v>219.3520018977613</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2772330761267</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8385185906377</v>
+        <v>136.8859191967695</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3582211803319</v>
+        <v>107.8160112448151</v>
       </c>
       <c r="I9" t="n">
-        <v>72.00962059397116</v>
+        <v>73.6416151471924</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.80362453272261</v>
+        <v>71.74662006079902</v>
       </c>
       <c r="S9" t="n">
-        <v>162.3030441088983</v>
+        <v>163.1834895780565</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1292300623896</v>
+        <v>198.320287768684</v>
       </c>
       <c r="U9" t="n">
-        <v>225.908158490674</v>
+        <v>225.9112769516037</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5676055192152</v>
+        <v>167.6073445951065</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4629941912556</v>
+        <v>158.8163107023621</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7184689252781</v>
+        <v>143.9135313166281</v>
       </c>
       <c r="J10" t="n">
-        <v>63.42664968215054</v>
+        <v>66.236202347667</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.71025749466926</v>
+        <v>54.03786320407806</v>
       </c>
       <c r="R10" t="n">
-        <v>158.2569640235438</v>
+        <v>160.0437773813481</v>
       </c>
       <c r="S10" t="n">
-        <v>216.6383466748816</v>
+        <v>217.3308903883695</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1366284787861</v>
+        <v>226.3064227121399</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2981038239444</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859148</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y32" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="33">
@@ -29906,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C34" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D34" t="n">
-        <v>88.65267375025915</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F34" t="n">
-        <v>88.65267375025915</v>
+        <v>91.48995205464206</v>
       </c>
       <c r="G34" t="n">
-        <v>88.65267375025915</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>88.65267375025915</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>88.65267375025915</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29954,28 +29954,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.65267375025915</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U34" t="n">
-        <v>56.09275209343105</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V34" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X34" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.65267375025915</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C37" t="n">
-        <v>88.65267375025913</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H37" t="n">
-        <v>56.09275209343184</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.65267375025913</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -30200,19 +30200,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>88.65267375025913</v>
+        <v>86.47183148750477</v>
       </c>
       <c r="V37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.65267375025913</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>88.65267375025913</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>88.65267375025913</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>88.65267375025913</v>
+        <v>91.48995205464247</v>
       </c>
       <c r="F40" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G40" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H40" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I40" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,25 +30428,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.65267375025913</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T40" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U40" t="n">
-        <v>88.65267375025913</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X40" t="n">
-        <v>56.0927520934319</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.67753713166655</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.8552478963723599</v>
       </c>
       <c r="H8" t="n">
-        <v>9.666094735508892</v>
+        <v>8.758807518723433</v>
       </c>
       <c r="I8" t="n">
-        <v>36.38736651196942</v>
+        <v>32.97194452489543</v>
       </c>
       <c r="J8" t="n">
-        <v>80.10718496842655</v>
+        <v>72.58809614473364</v>
       </c>
       <c r="K8" t="n">
-        <v>120.0599046221887</v>
+        <v>108.7907395981757</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068054</v>
+        <v>134.9645324067813</v>
       </c>
       <c r="M8" t="n">
-        <v>165.7299311340341</v>
+        <v>150.1740471838932</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4116146850913</v>
+        <v>152.6040202694612</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559843</v>
+        <v>144.0996489999086</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7252782213693</v>
+        <v>122.9857165582159</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.9240315263455</v>
+        <v>92.35715126938074</v>
       </c>
       <c r="R8" t="n">
-        <v>59.28844852233964</v>
+        <v>53.7234656705003</v>
       </c>
       <c r="S8" t="n">
-        <v>21.50773917103957</v>
+        <v>19.48896143858517</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342871</v>
+        <v>3.743847666370007</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.06841983170978877</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.4575979664411172</v>
       </c>
       <c r="H9" t="n">
-        <v>4.877223056164522</v>
+        <v>4.419432991681317</v>
       </c>
       <c r="I9" t="n">
-        <v>17.38701225744391</v>
+        <v>15.75501770422268</v>
       </c>
       <c r="J9" t="n">
-        <v>47.71129057803813</v>
+        <v>43.23297278556188</v>
       </c>
       <c r="K9" t="n">
-        <v>81.54619494042197</v>
+        <v>73.89203653711672</v>
       </c>
       <c r="L9" t="n">
-        <v>109.6489225228995</v>
+        <v>99.35696196783996</v>
       </c>
       <c r="M9" t="n">
-        <v>127.9551207786668</v>
+        <v>115.9448882513304</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>119.0136044385606</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1520068700076</v>
+        <v>108.8741968663653</v>
       </c>
       <c r="P9" t="n">
-        <v>96.43257830122204</v>
+        <v>87.38114150400598</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.4626248077258</v>
+        <v>58.41197901448367</v>
       </c>
       <c r="R9" t="n">
-        <v>31.35420961992052</v>
+        <v>28.41121409184412</v>
       </c>
       <c r="S9" t="n">
-        <v>9.380126994939479</v>
+        <v>8.499681525781273</v>
       </c>
       <c r="T9" t="n">
-        <v>2.035498632431968</v>
+        <v>1.84444092613766</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03010512937112615</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.423373839243596</v>
+        <v>0.383634763352274</v>
       </c>
       <c r="H10" t="n">
-        <v>3.764178316183975</v>
+        <v>3.410861805077493</v>
       </c>
       <c r="I10" t="n">
-        <v>12.73200600198015</v>
+        <v>11.53694361063021</v>
       </c>
       <c r="J10" t="n">
-        <v>29.93253043452224</v>
+        <v>27.12297776900577</v>
       </c>
       <c r="K10" t="n">
-        <v>49.18834241393778</v>
+        <v>44.57138432401873</v>
       </c>
       <c r="L10" t="n">
-        <v>62.94414333627064</v>
+        <v>57.0360265442099</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797568</v>
+        <v>60.13649294984781</v>
       </c>
       <c r="N10" t="n">
-        <v>64.78774396352233</v>
+        <v>58.7065815591712</v>
       </c>
       <c r="O10" t="n">
-        <v>59.84196775054031</v>
+        <v>54.22503000546507</v>
       </c>
       <c r="P10" t="n">
-        <v>51.20514142997091</v>
+        <v>46.39888083307864</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702513</v>
+        <v>32.12418004761633</v>
       </c>
       <c r="R10" t="n">
-        <v>19.03642735362569</v>
+        <v>17.24961399582133</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090667</v>
+        <v>6.685707648602809</v>
       </c>
       <c r="T10" t="n">
-        <v>1.808960949495364</v>
+        <v>1.639166716141534</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.0209255325464877</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34392,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629122</v>
@@ -35816,10 +35816,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -36056,7 +36056,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>244.1308004512936</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36527,7 +36527,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861315</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36606,7 +36606,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>605.6456348954928</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>244.1308004512936</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37001,7 +37001,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37089,7 +37089,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>304.1381042863007</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.25595374473278</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
-        <v>247.7251966759861</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>361.4349093018646</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>389.3109165251504</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>386.5344832992066</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>344.0306673543063</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>276.634608276777</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.0717756695602</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.25595374473278</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
-        <v>247.7251966759861</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>361.4349093018646</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>389.3109165251504</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>386.5344832992066</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>344.0306673543063</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>276.634608276777</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.0717756695602</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
